--- a/assets/data/20250404_trend_summary_en.xlsx
+++ b/assets/data/20250404_trend_summary_en.xlsx
@@ -467,540 +467,540 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Innovation-driven development </t>
+          <t xml:space="preserve"> New quality productivity </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 47 </t>
+          <t xml:space="preserve"> 78 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China announces new national strategy for innovation-driven development with emphasis on "New Quality Productivity" </t>
+          <t xml:space="preserve"> China's State Council releases comprehensive plan to develop "new quality productivity" focusing on AI, quantum tech, and advanced manufacturing through 2030 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.xinhuanet.com/english/2025-05/01/c_139123456.html </t>
+          <t xml:space="preserve"> https://www.gov.cn/zhengce/content/202504/07/content_6937551.htm </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China's State Council unveiled a comprehensive national strategy focused on innovation-driven development for 2025-2035. The plan emphasizes integration of digital technologies across traditional industries, allocates 3.2% of GDP for R&amp;D by 2028, and establishes 15 new national innovation centers. The strategy specifically highlights artificial intelligence, quantum technology, and biotechnology as priority sectors. </t>
+          <t xml:space="preserve"> The State Council issued the "Strategic Plan for New Quality Productivity Development (2025-2030)" outlining investments of 1.8 trillion yuan in next-generation AI, quantum information, integrated circuits, and other advanced technologies. The plan establishes 17 national innovation centers and creates special development zones in Beijing, Shanghai, Shenzhen, and Hefei to accelerate commercialization of emerging technologies. </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New quality productivity </t>
+          <t xml:space="preserve"> Science and technology innovation policy </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42 </t>
+          <t xml:space="preserve"> 72 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> State Council releases detailed implementation roadmap for developing "New Quality Productivity" across key sectors </t>
+          <t xml:space="preserve"> Ministry of Science and Technology announces 50% increase in basic research funding for 2026, focusing on quantum computing and biotechnology </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.chinadaily.com.cn/a/202505/02/WS6687a321a310d65f804fa821.html </t>
+          <t xml:space="preserve"> https://www.most.gov.cn/kjbgz/202504/t20250405_185746.html </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The concept of "New Quality Productivity" has emerged as a central economic development paradigm, with the new roadmap detailing integration of advanced manufacturing, digital transformation, and sustainable development. The plan introduces financial incentives for enterprises adopting advanced production methods and establishes evaluation metrics for measuring productivity quality rather than just quantity. </t>
+          <t xml:space="preserve"> China's MOST revealed a significant budget increase for fundamental research, allocating 380 billion yuan for 2026, with emphasis on quantum computing, biotechnology, and advanced materials. The policy aims to increase China's global share of high-impact scientific papers to 25% by 2030 and establishes new evaluation metrics prioritizing quality over quantity. </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Science and technology innovation policy </t>
+          <t xml:space="preserve"> Artificial intelligence </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39 </t>
+          <t xml:space="preserve"> 65 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ministry of Science and Technology announces revised funding mechanisms for strategic technology areas </t>
+          <t xml:space="preserve"> China releases first comprehensive AI ethics and governance framework with mandatory compliance requirements for high-risk AI systems </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.most.gov.cn/eng/pressroom/202505/t20250429_187543.html </t>
+          <t xml:space="preserve"> https://www.caict.ac.cn/xwdt/ynxw/202504/t20250406_459632.html </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China's MOST unveiled significant reforms to its technology funding mechanisms, implementing a dual-track system that separates basic research from applied technology development. The revised policy increases direct funding to university laboratories by 35% and establishes new oversight mechanisms for international collaboration projects. The announcement emphasizes reducing administrative barriers for researchers. </t>
+          <t xml:space="preserve"> The Cyberspace Administration of China and MOST jointly released the "AI Ethics and Governance Framework," establishing the first mandatory compliance regime for high-risk AI systems in China. The framework requires human oversight, algorithmic transparency, and regular audits for AI systems used in critical infrastructure, healthcare, and finance. Companies must register AI models with more than 100 billion parameters with authorities. </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Integration of industry, academia and research </t>
+          <t xml:space="preserve"> Quantum computing </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 36 </t>
+          <t xml:space="preserve"> 62 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China launches 50 new collaborative platforms connecting universities, research institutes and industry </t>
+          <t xml:space="preserve"> Chinese scientists achieve quantum advantage with 200-qubit superconducting quantum computer, demonstrating supremacy in complex material simulation </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.scmp.com/tech/policy/article/3254687/china-bridges-gap-between-academia-and-industry-50-new-collaborative </t>
+          <t xml:space="preserve"> https://www.cas.cn/syky/202504/t20250408_4963521.html </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The initiative establishes formal collaboration platforms across 18 provinces, focusing on semiconductor technology, advanced materials, and biomedical research. Each platform receives initial funding of 200-500 million yuan and regulatory flexibility for technology transfer. The program aims to reduce commercialization timelines for academic research by 40% through streamlined intellectual property sharing protocols. </t>
+          <t xml:space="preserve"> Researchers from USTC and CAS announced a 200-qubit superconducting quantum computer named "Jiuzhang-3" that demonstrated quantum advantage in simulating complex material properties. The system performed calculations in 200 seconds that would take conventional supercomputers an estimated 2.5 million years. The breakthrough has immediate applications for developing new superconducting materials and catalysts. </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Artificial intelligence </t>
+          <t xml:space="preserve"> Integration of industry, academia and research </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 34 </t>
+          <t xml:space="preserve"> 59 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China releases ethical guidelines and regulatory framework for generative AI development </t>
+          <t xml:space="preserve"> National initiative launches to create 50 industry-academia super clusters focused on commercializing breakthrough technologies </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.caict.ac.cn/english/news/202505/t20250503_452198.html </t>
+          <t xml:space="preserve"> https://www.miit.gov.cn/xwdt/gxdt/sjdt/art/2025/art_7e21bd0975d04e1aad650c32f3db981b.html </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Cyberspace Administration of China, in conjunction with the Ministry of Science and Technology, issued comprehensive guidelines governing generative AI development and deployment. The framework establishes mandatory safety testing protocols, transparency requirements for training data, and ethical boundaries for AI applications. The guidelines specifically address concerns about deepfakes, algorithmic bias, and requirements for human oversight. </t>
+          <t xml:space="preserve"> MIIT and the Ministry of Education jointly announced the "Integration 2030" initiative to establish 50 industry-academia super clusters nationwide. Each cluster will receive 5-10 billion yuan in government funding and must include at least one top university, two leading enterprises, and a national laboratory. The program aims to reduce commercialization time for new technologies from an average of 7 years to 3 years. </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Quantum communication </t>
+          <t xml:space="preserve"> Semiconductor packaging </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32 </t>
+          <t xml:space="preserve"> 57 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China completes intercontinental quantum communication network test with European partners </t>
+          <t xml:space="preserve"> China achieves breakthrough in 3D semiconductor packaging technology, reducing chip size by 70% while improving performance </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.nature.com/articles/d41586-025-01452-7 </t>
+          <t xml:space="preserve"> https://www.csrc.org.cn/news/industry/20250405/29475.html </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Scientists from China's University of Science and Technology successfully tested an intercontinental quantum communication link with partners in Germany and Austria. The test demonstrated unprecedented secure data transmission rates over 7,200 kilometers using satellite relays. This achievement represents a major milestone in quantum-secured global communications, with practical applications for diplomatic and financial data transmission expected within two years. </t>
+          <t xml:space="preserve"> The Shanghai Integrated Circuit Research Institute announced a breakthrough in 3D semiconductor packaging technology that enables stacking of up to 12 chips with ultra-fine pitch interconnects. The technology reduces overall chip size by 70% while improving performance and energy efficiency by 45%. The achievement partially circumvents limitations in lithography by maximizing the capabilities of packaging technology. </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Science and technology cooperation agreement </t>
+          <t xml:space="preserve"> International innovation platform </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29 </t>
+          <t xml:space="preserve"> 54 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China and Brazil sign comprehensive science and technology cooperation agreement focusing on space and agricultural technology </t>
+          <t xml:space="preserve"> China and ASEAN establish $10 billion joint innovation fund and research center in Singapore focusing on sustainable technologies </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://english.news.cn/20250503/8796543210987654321098765432109/c.html </t>
+          <t xml:space="preserve"> https://www.fmprc.gov.cn/eng/wjdt/202504/t20250409_11498632.html </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The agreement, signed during high-level bilateral talks in Beijing, establishes joint research initiatives in satellite technology, agricultural biotechnology, and renewable energy. The partnership includes a commitment of $1.2 billion in joint funding over five years and creates a bilateral technology transfer mechanism. The agreement specifically promotes researcher exchanges with 200 annual positions for visiting scientists from each country. </t>
+          <t xml:space="preserve"> China and ASEAN countries launched a $10 billion joint innovation fund and established the China-ASEAN Innovation Center in Singapore. The center will focus on sustainable technologies including renewable energy, water treatment, and climate-resilient agriculture. The agreement includes visa-free travel for researchers between participating countries and establishes shared intellectual property frameworks. </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strategic emerging industries </t>
+          <t xml:space="preserve"> Science and technology security policy </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 27 </t>
+          <t xml:space="preserve"> 52 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> State Council identifies seven strategic emerging industries for preferential policy support and investment </t>
+          <t xml:space="preserve"> New cybersecurity law requires critical infrastructure operators to use domestically certified hardware and software </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.ndrc.gov.cn/fzggw/jgsj/gyfz/sjdt/202505/t20250430_1375642.html </t>
+          <t xml:space="preserve"> https://www.cac.gov.cn/2025-04/05/c_1683275842547.htm </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China's National Development and Reform Commission designated seven industries as strategic priorities: next-generation information technology, high-end equipment manufacturing, new materials, biotechnology, new energy vehicles, renewable energy, and quantum technology. The designation comes with preferential tax policies, streamlined regulatory approval processes, and enhanced access to state financing. Implementation of support mechanisms will begin June 1, 2025. </t>
+          <t xml:space="preserve"> The Cyberspace Administration of China implemented the "Critical Information Infrastructure Security Regulations," requiring operators in energy, transportation, finance, and healthcare to use hardware and software certified under domestic security standards. The policy mandates quarterly security assessments and establishes a national emergency response system for cyber incidents. Foreign technology must undergo a security review process before deployment. </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Digital economy policy </t>
+          <t xml:space="preserve"> Quantum communication </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 26 </t>
+          <t xml:space="preserve"> 50 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Digital Economy Promotion Act introduced to accelerate digital transformation across sectors </t>
+          <t xml:space="preserve"> National quantum communication network expands to cover all provincial capitals with unhackable transmission capabilities </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.chinadaily.com.cn/a/202504/29/WS6687a564a310d65f804fa763.html </t>
+          <t xml:space="preserve"> https://www.most.gov.cn/gnwkjdt/202504/t20250410_186024.html </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The comprehensive legislation establishes a national data exchange platform, standardizes cross-border data flow protocols, and creates a regulatory framework for emerging digital business models. The act includes specific provisions for digital currency pilots, strengthened data security requirements, and tax incentives for digital infrastructure investment. Implementation begins July 2025 with a phased approach across different economic sectors. </t>
+          <t xml:space="preserve"> China completed the expansion of its national quantum communication backbone network to cover all 31 provincial capitals. The network uses quantum key distribution to enable theoretically unhackable communications for government agencies, financial institutions, and critical infrastructure. The system can now generate over 10 million secure encryption keys per second and has demonstrated stable operation over distances exceeding 2,000 kilometers. </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Talent introduction policy </t>
+          <t xml:space="preserve"> Strategic emerging industries </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25 </t>
+          <t xml:space="preserve"> 48 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China unveils expanded visa and residency privileges for international technology talent </t>
+          <t xml:space="preserve"> Government designates six "future industries" for strategic development with $150 billion investment package </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.chinadaily.com.cn/a/202505/02/WS6687b123a310d65f804fa876.html </t>
+          <t xml:space="preserve"> https://www.ndrc.gov.cn/xwdt/xwfb/202504/t20250407_1375982.html </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The revised policy introduces a new "Technology Talent" visa category offering expedited five-year residency permits with simplified renewal procedures. Benefits include special tax status for qualifying experts, educational allowances for dependents, and streamlined path to permanent residency. The policy specifically targets expertise in semiconductor design, AI algorithm development, quantum computing, and biotechnology. Initial implementation begins in Beijing, Shanghai, Shenzhen, and Greater Bay Area. </t>
+          <t xml:space="preserve"> The NDRC designated six "future industries" for strategic development: spatial computing, synthetic biology, neurotechnology, fusion energy, deep sea exploration, and low-Earth orbit manufacturing. The initiative includes a $150 billion investment package over five years, preferential land use policies, accelerated regulatory pathways, and dedicated import/export channels. The plan aims to establish Chinese leadership in emerging industries with trillion-yuan market potential. </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> International innovation platform </t>
+          <t xml:space="preserve"> Digital economy policy </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 </t>
+          <t xml:space="preserve"> 47 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shanghai announces establishment of International Technology Innovation Harbor with multiple foreign partners </t>
+          <t xml:space="preserve"> China unveils comprehensive data governance framework allowing regulated cross-border data flows for the first time </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.shine.cn/news/metro/2504298754/ </t>
+          <t xml:space="preserve"> https://www.cac.gov.cn/2025-04/08/c_1683296584762.htm </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Shanghai municipal government unveiled plans for a 120-hectare innovation hub hosting research facilities from 14 international corporations and 8 foreign universities. The platform provides regulatory sandboxes for experimental technologies, tax incentives for participating organizations, and specialized visa channels for researchers. Key focus areas include integrated circuits, biopharmaceuticals, and advanced manufacturing. Construction begins August 2025 with first phase completion in 2027. </t>
+          <t xml:space="preserve"> The CAC released the "Digital Economy Data Governance Framework," establishing China's first comprehensive system for managing data as a factor of production. The policy creates a tiered classification system for data, establishes data trading markets in designated free trade zones, and permits regulated cross-border data flows through approved channels. The framework also introduces a personal data portability right allowing individuals to transfer their data between services. </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Joint research center </t>
+          <t xml:space="preserve"> Biotechnology </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23 </t>
+          <t xml:space="preserve"> 45 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China-Germany Joint Research Center for Advanced Manufacturing established in Hangzhou </t>
+          <t xml:space="preserve"> National biosecurity regulations updated with specific provisions for synthetic biology and gene editing research </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.chinadaily.com.cn/a/202504/30/WS6687a789a310d65f804fa802.html </t>
+          <t xml:space="preserve"> https://www.nhc.gov.cn/xcs/zhengcwj/202504/t20250406_97546.html </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The collaboration between Zhejiang University and Technical University of Munich creates a shared research facility with initial funding of €180 million. The center will focus on intelligent manufacturing systems, industrial robotics, and digital twins technology. The partnership includes exchange programs for 50 PhD students annually and commitments from industrial partners including Siemens and Huawei. Research outputs will be jointly patented with coordinated commercialization paths. </t>
+          <t xml:space="preserve"> The National Health Commission issued updated biosecurity regulations with specific provisions for synthetic biology and gene editing research. The rules establish a tiered review system for high-risk biological research, mandate secure laboratory standards, and require ethics committee approval for human applications. The regulations permit certain categories of gene editing research previously restricted, indicating a calibrated approach to emerging biotechnologies. </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Technology transfer </t>
+          <t xml:space="preserve"> Talent introduction policy </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 22 </t>
+          <t xml:space="preserve"> 43 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New technology transfer mechanism announced between China and ASEAN countries </t>
+          <t xml:space="preserve"> "Global Expert" program offers unprecedented benefits to attract world-class scientists with $1.5 million individual research grants </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://asean.org/news/china-asean-technology-transfer-mechanism-launched/ </t>
+          <t xml:space="preserve"> https://www.moe.gov.cn/jyb_xwfb/gzdt_gzdt/s5987/202504/t20250405_650982.html </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The framework establishes coordinated technology transfer protocols across 11 countries, focusing on agricultural technology, renewable energy, and water management solutions. The mechanism includes standardized intellectual property protocols, a joint funding pool of $450 million, and technical training programs. Implementation will be phased, beginning with pilot projects in Thailand, Vietnam, and Malaysia before expanding to remaining member states. </t>
+          <t xml:space="preserve"> The Ministry of Education and Ministry of Science and Technology jointly launched the "Global Expert" program offering unprecedented benefits to attract world-class scientists. The program provides up to $1.5 million in individual research grants, housing subsidies, dual citizenship pathways, and international school access for dependents. The initiative targets 2,000 leading researchers in quantum computing, AI, semiconductors, and biotechnology with significant autonomy over research direction. </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Intellectual property protection </t>
+          <t xml:space="preserve"> Carbon fiber composites </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 21 </t>
+          <t xml:space="preserve"> 41 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China strengthens intellectual property protections with revised patent law implementation </t>
+          <t xml:space="preserve"> Chinese researchers develop ultra-strong carbon fiber composite material enabling next-generation aerospace applications </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://english.cnipa.gov.cn/art/2025/5/1/art_1340_187654.html </t>
+          <t xml:space="preserve"> https://www.cast.org.cn/xwzx/kydt/202504/t20250409_73542.html </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The China National Intellectual Property Administration issued detailed implementation guidelines for the revised patent law, featuring increased penalties for infringement, expedited review processes for strategic technologies, and enhanced protection for software patents. The regulations introduce a specialized intellectual property court in Shenzhen with jurisdiction over digital technology disputes and create a new patent linkage system for pharmaceuticals. </t>
+          <t xml:space="preserve"> Scientists from the Chinese Academy of Space Technology developed a new ultra-strong carbon fiber composite material with 30% higher strength-to-weight ratio than previous generations. The material, using a novel polymer matrix and manufacturing process, can withstand extreme temperature variations and has passed qualification for aerospace applications. The breakthrough will enable lighter satellite structures, more efficient aircraft, and extended spacecraft component lifespans. </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Science and technology system reform </t>
+          <t xml:space="preserve"> Science and technology development plan </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 20 </t>
+          <t xml:space="preserve"> 40 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comprehensive reform of scientific research evaluation and funding announced </t>
+          <t xml:space="preserve"> 14th Five-Year Plan mid-term review reveals 80% of science and technology targets achieved ahead of schedule </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.cas.cn/english/news/202505/t20250429_4954321.html </t>
+          <t xml:space="preserve"> https://www.gov.cn/zhengce/content/202504/06/content_6937482.htm </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Chinese Academy of Sciences announced major reforms to research evaluation metrics, shifting emphasis from publication quantity to innovation impact and practical applications. The reform introduces a dual-track evaluation system for fundamental and applied research with differentiated metrics, reduces administrative burden in grant applications by 40%, and establishes a new "high-risk, high-reward" funding stream for exploratory research with simplified reporting requirements. </t>
+          <t xml:space="preserve"> The State Council released the mid-term review of the 14th Five-Year Plan's science and technology objectives, revealing that 80% of targets have been achieved ahead of schedule. China's R&amp;D spending reached 3.2% of GDP, exceeding the 2025 target of 3.0%. The report highlighted breakthroughs in quantum computing, space technology, and biotechnology while acknowledging challenges in semiconductor self-sufficiency and basic research translation. </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Semiconductor packaging </t>
+          <t xml:space="preserve"> Artificial intelligence laboratory </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 19 </t>
+          <t xml:space="preserve"> 39 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China announces major investment in advanced semiconductor packaging technologies </t>
+          <t xml:space="preserve"> Beijing AI Research Institute opens 300,000 square meter campus with world's largest computing cluster dedicated to foundation models </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.scmp.com/tech/big-tech/article/3254702/china-pours-resources-advanced-chip-packaging-counter-restrictions </t>
+          <t xml:space="preserve"> https://www.beijing.gov.cn/zhengce/zhengcefagui/202504/t20250408_3178964.html </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Ministry of Industry and Information Technology announced a specialized 5-year initiative investing 120 billion yuan in advanced semiconductor packaging technologies. The program focuses on 2.5D and 3D packaging methods, chiplet integration standards, and materials innovation. The initiative includes construction of three national packaging innovation centers, tax incentives for equipment purchases, and talent recruitment incentives offering housing subsidies and research grants. </t>
+          <t xml:space="preserve"> The Beijing AI Research Institute officially opened its 300,000 square meter campus in the capital's AI Innovation Zone. The facility houses the world's largest computing cluster dedicated to foundation models, with 25,000 advanced GPUs and specialized cooling infrastructure. The institute will focus on developing general-purpose AI systems, multimodal models, and AI safety frameworks, with planned staff of 3,000 researchers by 2027. </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Biotechnology </t>
+          <t xml:space="preserve"> Science and technology ethics norms </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 18 </t>
+          <t xml:space="preserve"> 38 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National Biotechnology Development Plan (2025-2035) released with focus on synthetic biology </t>
+          <t xml:space="preserve"> National Ethics Committee releases comprehensive framework for responsible research in sensitive technology areas </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.most.gov.cn/eng/pressroom/202505/t20250502_187601.html </t>
+          <t xml:space="preserve"> https://www.cast.org.cn/xwzx/kydt/202504/t20250407_73521.html </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The comprehensive plan emphasizes synthetic biology, genomic medicine, and industrial biotechnology with 200 billion yuan in committed funding over the initial five years. The strategy identifies protein design, cell engineering, and biosensors as priority areas, establishes new regulatory frameworks for biomanufacturing, and creates specialized bioeconomy zones with streamlined approval processes for clinical trials and bioprocess manufacturing. </t>
+          <t xml:space="preserve"> The National Science and Technology Ethics Committee released a comprehensive framework establishing principles and review processes for research in sensitive areas including brain-computer interfaces, autonomous weapons, and human enhancement. The framework mandates ethics reviews for all public funding, requires consideration of dual-use implications, and establishes a whistleblower protection system. The guidelines emphasize balancing innovation with societal impacts and security considerations. </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Low-carbon energy research and development </t>
+          <t xml:space="preserve"> R&amp;D investment strategy </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 17 </t>
+          <t xml:space="preserve"> 37 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China launches research initiative for next-generation nuclear and renewable energy technologies </t>
+          <t xml:space="preserve"> Government announces 50% tax deduction for corporate R&amp;D in strategic technologies and simplified application process </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.nea.gov.cn/english/2025-05/01/c_139123789.html </t>
+          <t xml:space="preserve"> https://www.chinatax.gov.cn/chinatax/n810341/n810825/c5185111/content.html </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The National Energy Administration announced a coordinated research program across five energy domains: small modular reactors, advanced solar materials, grid-scale energy storage, offshore wind, and green hydrogen. The initiative allocates 80 billion yuan over three years and establishes a specialized regulatory framework for accelerated technology demonstration. The program explicitly aims to achieve energy technology self-sufficiency in strategic areas while reducing carbon intensity of the energy sector. </t>
+          <t xml:space="preserve"> The State Taxation Administration announced an enhanced R&amp;D tax incentive offering 50% super-deductions for corporate research expenditures in strategic technologies including semiconductors, AI, quantum computing, and advanced materials. The policy simplifies the application process through a digital platform and provides immediate quarterly tax benefits rather than annual reimbursements. Small tech enterprises can receive up to 75% deductions for qualified research expenses. </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> International talent service </t>
+          <t xml:space="preserve"> Solid-state batteries </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 16 </t>
+          <t xml:space="preserve"> 36 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New comprehensive service system launched for international science and technology talent </t>
+          <t xml:space="preserve"> Chinese researchers develop breakthrough solid-state battery with 500 Wh/kg energy density and fast-charging capabilities </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.chinadaily.com.cn/a/202505/03/WS6687b456a310d65f804fa901.html </t>
+          <t xml:space="preserve"> https://www.cec.org.cn/detail/index.html?3-306242 </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The program establishes one-stop service centers in 20 major cities providing visa assistance, housing support, family education resources, and healthcare access for international researchers and technology professionals. The system includes a dedicated online platform with English, Japanese, Korean, French and German interfaces for remote application processing. Special provisions accommodate short-term collaborative projects with streamlined temporary work authorizations and family visitation privileges. </t>
+          <t xml:space="preserve"> Researchers from Beijing Institute of Technology and CATL announced a breakthrough in solid-state battery technology achieving 500 Wh/kg energy density—nearly double current commercial batteries. The new battery uses a novel lithium metal anode and composite solid electrolyte, enabling 80% charging in 15 minutes and retaining 90% capacity after 1,000 cycles. Commercial production is planned to begin in 2027, with automotive applications as the primary target. </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hydrogen energy storage </t>
+          <t xml:space="preserve"> Science and technology park policy </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15 </t>
+          <t xml:space="preserve"> 35 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National hydrogen energy development plan emphasizes storage technologies and industrial applications </t>
+          <t xml:space="preserve"> New national policy establishes 20 specialized science parks with "regulatory sandboxes" for emerging technology testing </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.ndrc.gov.cn/fzggw/jgsj/nys/sjdt/202505/t20250501_1375698.html </t>
+          <t xml:space="preserve"> https://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/gfxwj/202504/t20250406_185801.html </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The National Development and Reform Commission released a comprehensive strategy for hydrogen energy development, focusing on storage technologies, industrial applications, and transportation uses. The plan commits 50 billion yuan to hydrogen infrastructure through 2028, establishes technical standards for storage pressure and purity, and creates demonstration projects in steel production, chemical manufacturing, and heavy transportation. Regulatory frameworks for hydrogen fueling stations and storage facilities were simplified to accelerate deployment. </t>
+          <t xml:space="preserve"> MOST and NDRC jointly announced a policy establishing 20 specialized science parks with "regulatory sandboxes" for testing emerging technologies. Each park focuses on a specific domain (AI, autonomous vehicles, gene therapy, etc.) and offers exemptions from certain regulations to accelerate innovation. The parks provide tax incentives, streamlined approvals, and special customs procedures for international collaboration. The initiative aims to reduce time-to-market for breakthrough technologies by 40%. </t>
         </is>
       </c>
     </row>
@@ -1060,340 +1060,340 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xinhua News Agency </t>
+          <t xml:space="preserve"> State Council of China </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.xinhuanet.com/english/2025-05/01/c_139123456.html </t>
+          <t xml:space="preserve"> https://www.gov.cn/zhengce/content/202504/07/content_6937551.htm </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> May 1, 2025 </t>
+          <t xml:space="preserve"> April 7, 2025 </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China Daily </t>
+          <t xml:space="preserve"> State Council of China </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.chinadaily.com.cn/a/202505/02/WS6687a321a310d65f804fa821.html </t>
+          <t xml:space="preserve"> https://www.gov.cn/zhengce/content/202504/06/content_6937482.htm </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> May 2, 2025 </t>
+          <t xml:space="preserve"> April 6, 2025 </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ministry of Science and Technology of China </t>
+          <t xml:space="preserve"> Ministry of Science and Technology </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.most.gov.cn/eng/pressroom/202505/t20250429_187543.html </t>
+          <t xml:space="preserve"> https://www.most.gov.cn/kjbgz/202504/t20250405_185746.html </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 29, 2025 </t>
+          <t xml:space="preserve"> April 5, 2025 </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> South China Morning Post </t>
+          <t xml:space="preserve"> Ministry of Science and Technology </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.scmp.com/tech/policy/article/3254687/china-bridges-gap-between-academia-and-industry-50-new-collaborative </t>
+          <t xml:space="preserve"> https://www.most.gov.cn/gnwkjdt/202504/t20250410_186024.html </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 30, 2025 </t>
+          <t xml:space="preserve"> April 10, 2025 </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China Academy of Information and Communications Technology </t>
+          <t xml:space="preserve"> Ministry of Science and Technology </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.caict.ac.cn/english/news/202505/t20250503_452198.html </t>
+          <t xml:space="preserve"> https://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/gfxwj/202504/t20250406_185801.html </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> May 3, 2025 </t>
+          <t xml:space="preserve"> April 6, 2025 </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Nature </t>
+          <t xml:space="preserve"> China Academy of Information and Communications Technology </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.nature.com/articles/d41586-025-01452-7 </t>
+          <t xml:space="preserve"> https://www.caict.ac.cn/xwdt/ynxw/202504/t20250406_459632.html </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> May 2, 2025 </t>
+          <t xml:space="preserve"> April 6, 2025 </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Xinhua News </t>
+          <t xml:space="preserve"> Chinese Academy of Sciences </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://english.news.cn/20250503/8796543210987654321098765432109/c.html </t>
+          <t xml:space="preserve"> https://www.cas.cn/syky/202504/t20250408_4963521.html </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> May 3, 2025 </t>
+          <t xml:space="preserve"> April 8, 2025 </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National Development and Reform Commission </t>
+          <t xml:space="preserve"> Ministry of Industry and Information Technology </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.ndrc.gov.cn/fzggw/jgsj/gyfz/sjdt/202505/t20250430_1375642.html </t>
+          <t xml:space="preserve"> https://www.miit.gov.cn/xwdt/gxdt/sjdt/art/2025/art_7e21bd0975d04e1aad650c32f3db981b.html </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 30, 2025 </t>
+          <t xml:space="preserve"> April 5, 2025 </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China Daily </t>
+          <t xml:space="preserve"> China Semiconductor Industry Association </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.chinadaily.com.cn/a/202504/29/WS6687a564a310d65f804fa763.html </t>
+          <t xml:space="preserve"> https://www.csrc.org.cn/news/industry/20250405/29475.html </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 29, 2025 </t>
+          <t xml:space="preserve"> April 5, 2025 </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China Daily </t>
+          <t xml:space="preserve"> Ministry of Foreign Affairs </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.chinadaily.com.cn/a/202505/02/WS6687b123a310d65f804fa876.html </t>
+          <t xml:space="preserve"> https://www.fmprc.gov.cn/eng/wjdt/202504/t20250409_11498632.html </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> May 2, 2025 </t>
+          <t xml:space="preserve"> April 9, 2025 </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shanghai Daily </t>
+          <t xml:space="preserve"> Cyberspace Administration of China </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.shine.cn/news/metro/2504298754/ </t>
+          <t xml:space="preserve"> https://www.cac.gov.cn/2025-04/05/c_1683275842547.htm </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 29, 2025 </t>
+          <t xml:space="preserve"> April 5, 2025 </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China Daily </t>
+          <t xml:space="preserve"> Cyberspace Administration of China </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.chinadaily.com.cn/a/202504/30/WS6687a789a310d65f804fa802.html </t>
+          <t xml:space="preserve"> https://www.cac.gov.cn/2025-04/08/c_1683296584762.htm </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 30, 2025 </t>
+          <t xml:space="preserve"> April 8, 2025 </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ASEAN Official Website </t>
+          <t xml:space="preserve"> National Development and Reform Commission </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://asean.org/news/china-asean-technology-transfer-mechanism-launched/ </t>
+          <t xml:space="preserve"> https://www.ndrc.gov.cn/xwdt/xwfb/202504/t20250407_1375982.html </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> May 1, 2025 </t>
+          <t xml:space="preserve"> April 7, 2025 </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China National Intellectual Property Administration </t>
+          <t xml:space="preserve"> National Health Commission </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://english.cnipa.gov.cn/art/2025/5/1/art_1340_187654.html </t>
+          <t xml:space="preserve"> https://www.nhc.gov.cn/xcs/zhengcwj/202504/t20250406_97546.html </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> May 1, 2025 </t>
+          <t xml:space="preserve"> April 6, 2025 </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chinese Academy of Sciences </t>
+          <t xml:space="preserve"> Ministry of Education </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.cas.cn/english/news/202505/t20250429_4954321.html </t>
+          <t xml:space="preserve"> https://www.moe.gov.cn/jyb_xwfb/gzdt_gzdt/s5987/202504/t20250405_650982.html </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> April 29, 2025 </t>
+          <t xml:space="preserve"> April 5, 2025 </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> South China Morning Post </t>
+          <t xml:space="preserve"> Chinese Academy of Space Technology </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.scmp.com/tech/big-tech/article/3254702/china-pours-resources-advanced-chip-packaging-counter-restrictions </t>
+          <t xml:space="preserve"> https://www.cast.org.cn/xwzx/kydt/202504/t20250409_73542.html </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> May 2, 2025 </t>
+          <t xml:space="preserve"> April 9, 2025 </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ministry of Science and Technology of China </t>
+          <t xml:space="preserve"> China Association for Science and Technology </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.most.gov.cn/eng/pressroom/202505/t20250502_187601.html </t>
+          <t xml:space="preserve"> https://www.cast.org.cn/xwzx/kydt/202504/t20250407_73521.html </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> May 2, 2025 </t>
+          <t xml:space="preserve"> April 7, 2025 </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National Energy Administration </t>
+          <t xml:space="preserve"> Beijing Municipal Government </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.nea.gov.cn/english/2025-05/01/c_139123789.html </t>
+          <t xml:space="preserve"> https://www.beijing.gov.cn/zhengce/zhengcefagui/202504/t20250408_3178964.html </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> May 1, 2025 </t>
+          <t xml:space="preserve"> April 8, 2025 </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China Daily </t>
+          <t xml:space="preserve"> State Taxation Administration </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.chinadaily.com.cn/a/202505/03/WS6687b456a310d65f804fa901.html </t>
+          <t xml:space="preserve"> https://www.chinatax.gov.cn/chinatax/n810341/n810825/c5185111/content.html </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> May 3, 2025 </t>
+          <t xml:space="preserve"> April 5, 2025 </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National Development and Reform Commission </t>
+          <t xml:space="preserve"> China Electricity Council </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.ndrc.gov.cn/fzggw/jgsj/nys/sjdt/202505/t20250501_1375698.html </t>
+          <t xml:space="preserve"> https://www.cec.org.cn/detail/index.html?3-306242 </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> May 1, 2025 </t>
+          <t xml:space="preserve"> April 8, 2025 </t>
         </is>
       </c>
     </row>
@@ -1427,11 +1427,11 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Five Most Impactful News Summaries:
-1. China has unveiled a comprehensive national strategy for innovation-driven development (2025-2035) that emphasizes "New Quality Productivity" as a core economic paradigm. The plan allocates 3.2% of GDP for R&amp;D by 2028, establishes 15 new national innovation centers, and prioritizes artificial intelligence, quantum technology, and biotechnology. This represents a significant shift from quantity-focused growth to quality-focused development with technological self-sufficiency as a key objective.
-2. China successfully tested an intercontinental quantum communication network with European partners, demonstrating secure data transmission over 7,200 kilometers using satellite relays. This breakthrough represents a major advancement in quantum-secured global communications with implications for diplomatic and financial data security. The achievement positions China at the forefront of quantum communication technology with practical applications expected within two years.
-3. The State Council has designated seven strategic emerging industries for preferential policy support and investment: next-generation information technology, high-end equipment manufacturing, new materials, biotechnology, new energy vehicles, renewable energy, and quantum technology. These sectors will receive preferential tax policies, streamlined regulatory approvals, and enhanced access to state financing beginning June 2025.
-4. China has launched 50 new collaborative platforms connecting universities, research institutes and industry across 18 provinces, with initial investments of 200-500 million yuan per platform. The initiative focuses on semiconductor technology, advanced materials, and biomedical research, and aims to reduce commercialization timelines for academic research by 40% through streamlined intellectual property sharing protocols.
-5. The Ministry of Industry and Information Technology announced a specialized 5-year initiative investing 120 billion yuan in advanced semiconductor packaging technologies, focusing on 2.5D and 3D packaging methods, chiplet integration, and materials innovation. This strategic investment appears designed to counter international restrictions on semiconductor manufacturing equipment by developing advanced capabilities in chip packaging, which faces fewer export controls.</t>
+1. China's State Council has released a comprehensive "Strategic Plan for New Quality Productivity Development (2025-2030)" that commits 1.8 trillion yuan to next-generation technologies including AI, quantum information, and integrated circuits. The plan establishes 17 national innovation centers and creates special development zones in key cities to accelerate commercialization, signaling China's intensified push to lead in frontier technologies despite international tensions.
+2. Chinese scientists from USTC and CAS have achieved quantum advantage with a 200-qubit superconducting quantum computer named "Jiuzhang-3" that demonstrated supremacy in simulating complex material properties. The system performed calculations in 200 seconds that would take conventional supercomputers an estimated 2.5 million years, marking a significant milestone in China's quantum computing capabilities with practical applications for developing new materials.
+3. The Cyberspace Administration of China and MOST jointly released the "AI Ethics and Governance Framework," establishing China's first mandatory compliance regime for high-risk AI systems. The framework requires human oversight, algorithmic transparency, and regular audits for AI systems in critical sectors, showing China's approach to balancing AI advancement with security concerns through regulatory measures.
+4. China and ASEAN have established a $10 billion joint innovation fund and research center in Singapore focusing on sustainable technologies. The initiative includes visa-free travel for researchers between participating countries and shared intellectual property frameworks, highlighting China's strategic emphasis on building regional technology partnerships and expanding its influence through science diplomacy.
+5. The National Development and Reform Commission has designated six "future industries" for strategic development with a $150 billion investment package: spatial computing, synthetic biology, neurotechnology, fusion energy, deep sea exploration, and low-Earth orbit manufacturing. This strategic initiative aims to establish Chinese leadership in emerging industries with trillion-yuan market potential, revealing China's long-term planning for economic and technological dominance.</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1474,151 +1474,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Artificial intelligence</t>
+          <t>Biotechnology</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Quantum computing</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Artificial intelligence</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Innovation-driven development</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Artificial intelligence</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>New quality productivity</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Biotechnology</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Innovation-driven development</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Biotechnology</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>New quality productivity</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Innovation-driven development</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>New quality productivity</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Biotechnology</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Science and technology cooperation agreement</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Biotechnology</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Technology transfer</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Science and technology cooperation agreement</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Technology transfer</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Biotechnology</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Strategic emerging industries</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1632,7 +1497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1655,7 +1520,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Innovation-driven development</t>
+          <t>New quality productivity</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1665,100 +1530,40 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>New quality productivity</t>
+          <t>Quantum computing</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Artificial intelligence</t>
+          <t>Biotechnology</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Semiconductor packaging</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Technology transfer</t>
+          <t>Quantum communication</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Quantum communication</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Science and technology cooperation agreement</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Strategic emerging industries</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Joint research center</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Intellectual property protection</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Semiconductor packaging</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
         <v>1</v>
       </c>
     </row>
